--- a/public/data/soil/soil_table_republic_of_the_congo.xlsx
+++ b/public/data/soil/soil_table_republic_of_the_congo.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -788,28 +788,28 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>19152</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4984.1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3358.3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.467</v>
+        <v>7.051</v>
       </c>
       <c r="I2" t="n">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.664</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,28 +823,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>2628.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1669.9</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31222.8</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20544.8</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.936</v>
+        <v>1.558</v>
       </c>
       <c r="I3" t="n">
-        <v>0.517</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.662</v>
+        <v>5.928</v>
       </c>
       <c r="K3" t="n">
-        <v>2.102</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="4">
@@ -858,28 +858,28 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>11434.2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1851.2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11857.8</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1764.7</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.533</v>
+        <v>0.863</v>
       </c>
       <c r="I4" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.477</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>9012.3</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>225.7</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.253</v>
+        <v>0.204</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -928,28 +928,28 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>53108.3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>78.3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23792.4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>265.8</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>12.598</v>
+        <v>22.23</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.965</v>
+        <v>2.751</v>
       </c>
       <c r="K6" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -963,28 +963,28 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>4110.8</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2602.7</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4744.6</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>23050.7</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.693</v>
+        <v>1.373</v>
       </c>
       <c r="I7" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.343</v>
+        <v>0.739</v>
       </c>
       <c r="K7" t="n">
-        <v>0.924</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="8">
@@ -1004,10 +1004,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>923.9</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>656.3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1033,28 +1033,28 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>51696.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6550.3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>98.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>24.43</v>
+        <v>37.915</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.919</v>
+        <v>1.043</v>
       </c>
       <c r="K9" t="n">
-        <v>0.049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1068,25 +1068,25 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>20841.9</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>47.4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10.827</v>
+        <v>34.066</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>12975.4</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.515</v>
+        <v>25.088</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>39982.4</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1550.7</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8.809</v>
+        <v>10.771</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>49292.6</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>57.9</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>696.4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>12.052</v>
+        <v>18.255</v>
       </c>
       <c r="I13" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1208,7 +1208,7 @@
         <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>52459.8</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>12.411</v>
+        <v>27.501</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1243,28 +1243,28 @@
         <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>55800</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>143.7</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1021.2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>13.88</v>
+        <v>33.916</v>
       </c>
       <c r="I15" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1278,28 +1278,28 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>34502</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24374.3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.989</v>
+        <v>6.738</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.83</v>
+        <v>7.291</v>
       </c>
       <c r="K16" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1313,22 +1313,22 @@
         <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>81858.7</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>203.1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>19.011</v>
+        <v>30.69</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1348,28 +1348,28 @@
         <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>19968.2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>149.7</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1008</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>520.8</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5.537</v>
+        <v>13.79</v>
       </c>
       <c r="I18" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.354</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1383,28 +1383,28 @@
         <v>51</v>
       </c>
       <c r="D19" t="n">
-        <v>13686.7</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>9971</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>18405.7</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>32870</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.039</v>
+        <v>2.243</v>
       </c>
       <c r="I19" t="n">
-        <v>1.092</v>
+        <v>1.177</v>
       </c>
       <c r="J19" t="n">
-        <v>1.421</v>
+        <v>3.951</v>
       </c>
       <c r="K19" t="n">
-        <v>2.211</v>
+        <v>2.452</v>
       </c>
     </row>
     <row r="20">
@@ -1418,28 +1418,28 @@
         <v>52</v>
       </c>
       <c r="D20" t="n">
-        <v>29770.4</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>319.4</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>19112.2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3446.3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10.476</v>
+        <v>12.83</v>
       </c>
       <c r="I20" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.911</v>
+        <v>2.302</v>
       </c>
       <c r="K20" t="n">
-        <v>0.308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1453,28 +1453,28 @@
         <v>53</v>
       </c>
       <c r="D21" t="n">
-        <v>28551.1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2739.8</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1031.9</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>360.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>9.386</v>
+        <v>19.788</v>
       </c>
       <c r="I21" t="n">
-        <v>0.763</v>
+        <v>0.448</v>
       </c>
       <c r="J21" t="n">
-        <v>0.251</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1488,25 +1488,25 @@
         <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>13295.9</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>642.6</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.702</v>
+        <v>11.773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>56</v>
       </c>
       <c r="D23" t="n">
-        <v>7315.9</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.652</v>
+        <v>16.03</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1558,28 +1558,28 @@
         <v>57</v>
       </c>
       <c r="D24" t="n">
-        <v>18084.9</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>581.6</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>642.6</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>716.2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>4.554</v>
+        <v>25.286</v>
       </c>
       <c r="I24" t="n">
-        <v>0.175</v>
+        <v>0.625</v>
       </c>
       <c r="J24" t="n">
-        <v>0.146</v>
+        <v>1.538</v>
       </c>
       <c r="K24" t="n">
-        <v>0.232</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="25">
@@ -1593,25 +1593,25 @@
         <v>58</v>
       </c>
       <c r="D25" t="n">
-        <v>29553.9</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>11026.8</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>10.466</v>
+        <v>21.419</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.93</v>
+        <v>1.896</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1628,25 +1628,25 @@
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>7936.6</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1922.4</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>135.4</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.064</v>
+        <v>25.832</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.251</v>
+        <v>2.387</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>61</v>
       </c>
       <c r="D27" t="n">
-        <v>134774.5</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1724.1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>6520.8</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>78.1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>26.534</v>
+        <v>68.113</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1698,25 +1698,25 @@
         <v>62</v>
       </c>
       <c r="D28" t="n">
-        <v>31962.2</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1187.8</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.34</v>
+        <v>11.218</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>64</v>
       </c>
       <c r="D29" t="n">
-        <v>31361.7</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9.236</v>
+        <v>18.091</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1768,28 +1768,28 @@
         <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>13899.8</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>36.1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>25801.6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4790.3</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>3.344</v>
+        <v>7.372</v>
       </c>
       <c r="I30" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.668</v>
+        <v>9.212</v>
       </c>
       <c r="K30" t="n">
-        <v>1.496</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="31">
@@ -1803,28 +1803,28 @@
         <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>23590.7</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2548.4</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3516.8</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2466.3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.241</v>
+        <v>10.949</v>
       </c>
       <c r="I31" t="n">
-        <v>0.957</v>
+        <v>0.453</v>
       </c>
       <c r="J31" t="n">
-        <v>1.088</v>
+        <v>1.671</v>
       </c>
       <c r="K31" t="n">
-        <v>0.735</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="32">
@@ -1838,28 +1838,28 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>11834.1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>33758.2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5292.9</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>4.198</v>
+        <v>5.399</v>
       </c>
       <c r="I32" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>12.017</v>
+        <v>15.609</v>
       </c>
       <c r="K32" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1873,7 +1873,7 @@
         <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>5041.4</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.096</v>
+        <v>9.999</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1908,28 +1908,28 @@
         <v>69</v>
       </c>
       <c r="D34" t="n">
-        <v>25772.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>490.9</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3639.4</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>489.1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>9.591</v>
+        <v>26.627</v>
       </c>
       <c r="I34" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.033</v>
+        <v>1.943</v>
       </c>
       <c r="K34" t="n">
-        <v>0.114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1943,28 +1943,28 @@
         <v>71</v>
       </c>
       <c r="D35" t="n">
-        <v>72166.7</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>140.2</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>38253.5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>13.207</v>
+        <v>21.633</v>
       </c>
       <c r="I35" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.129</v>
+        <v>4.284</v>
       </c>
       <c r="K35" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1978,28 +1978,28 @@
         <v>72</v>
       </c>
       <c r="D36" t="n">
-        <v>73089.6</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>75.4</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>69820.7</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1306.4</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>10.208</v>
+        <v>18.233</v>
       </c>
       <c r="I36" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>9.632</v>
+        <v>14.862</v>
       </c>
       <c r="K36" t="n">
-        <v>0.166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2013,28 +2013,28 @@
         <v>73</v>
       </c>
       <c r="D37" t="n">
-        <v>96003.3</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68293.1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3036.6</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>15.567</v>
+        <v>22.941</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>9.487</v>
+        <v>6.259</v>
       </c>
       <c r="K37" t="n">
-        <v>0.434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2048,25 +2048,25 @@
         <v>74</v>
       </c>
       <c r="D38" t="n">
-        <v>9248.2</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>30794.5</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.284</v>
+        <v>3.208</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.698</v>
+        <v>6.088</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>688.4</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2118,28 +2118,28 @@
         <v>77</v>
       </c>
       <c r="D40" t="n">
-        <v>40065.2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>10539.6</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>248.2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.806</v>
+        <v>1.055</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.325</v>
+        <v>0.606</v>
       </c>
       <c r="K40" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2153,25 +2153,25 @@
         <v>78</v>
       </c>
       <c r="D41" t="n">
-        <v>53763.1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3163.2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.143</v>
+        <v>3.96</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.067</v>
+        <v>0.125</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2188,25 +2188,25 @@
         <v>79</v>
       </c>
       <c r="D42" t="n">
-        <v>60090.3</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>841.1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.958</v>
+        <v>0.952</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -2223,28 +2223,28 @@
         <v>80</v>
       </c>
       <c r="D43" t="n">
-        <v>34490.6</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>22592.4</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>44.7</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.735</v>
+        <v>1.694</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.486</v>
+        <v>0.621</v>
       </c>
       <c r="K43" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2258,25 +2258,25 @@
         <v>81</v>
       </c>
       <c r="D44" t="n">
-        <v>38887.5</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>14054.2</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.863</v>
+        <v>1.533</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.317</v>
+        <v>0.488</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -2293,28 +2293,28 @@
         <v>82</v>
       </c>
       <c r="D45" t="n">
-        <v>78441.9</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>808</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>33846.9</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>368.5</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.791</v>
+        <v>2.242</v>
       </c>
       <c r="I45" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.797</v>
+        <v>0.998</v>
       </c>
       <c r="K45" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2328,28 +2328,28 @@
         <v>83</v>
       </c>
       <c r="D46" t="n">
-        <v>66087.4</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>535.7</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>89271.8</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3964.4</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.531</v>
+        <v>1.721</v>
       </c>
       <c r="I46" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.628</v>
+        <v>1.835</v>
       </c>
       <c r="K46" t="n">
-        <v>0.087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2363,25 +2363,25 @@
         <v>85</v>
       </c>
       <c r="D47" t="n">
-        <v>49915.4</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>7.827</v>
+        <v>45.807</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2398,25 +2398,25 @@
         <v>86</v>
       </c>
       <c r="D48" t="n">
-        <v>10954.3</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>104.2</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.164</v>
+        <v>9.293</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>87</v>
       </c>
       <c r="D49" t="n">
-        <v>21369.7</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>3.53</v>
+        <v>13.602</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>

--- a/public/data/soil/soil_table_republic_of_the_congo.xlsx
+++ b/public/data/soil/soil_table_republic_of_the_congo.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -788,16 +788,16 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>6197.1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>115.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>860.4</v>
       </c>
       <c r="H2" t="n">
         <v>7.051</v>
@@ -823,16 +823,16 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1376</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>655.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5770.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3967.3</v>
       </c>
       <c r="H3" t="n">
         <v>1.558</v>
@@ -858,13 +858,13 @@
         <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6567.9</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3942.4</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3907.6</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27008.6</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>9751.6</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -963,16 +963,16 @@
         <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1979.8</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>473.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>741.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5190.2</v>
       </c>
       <c r="H7" t="n">
         <v>1.373</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>231.3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1033,13 +1033,13 @@
         <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6399.6</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>648.1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1433.4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1406.5</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>43</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>5719.6</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>44</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1152.6</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3718</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
         <v>46</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1494.9</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1278,13 +1278,13 @@
         <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2618.1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2122.9</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>48</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6415.3</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>863.1</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>744.6</v>
       </c>
       <c r="H18" t="n">
         <v>13.79</v>
@@ -1383,16 +1383,16 @@
         <v>51</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2838.4</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2023.7</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>6913</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>13746.8</v>
       </c>
       <c r="H19" t="n">
         <v>2.243</v>
@@ -1418,16 +1418,16 @@
         <v>52</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1191.2</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2182.1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>804.1</v>
       </c>
       <c r="H20" t="n">
         <v>12.83</v>
@@ -1453,13 +1453,13 @@
         <v>53</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4318.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>594.7</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>326.4</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>55</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>269.1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>56</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1026.2</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1558,16 +1558,16 @@
         <v>57</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>8301.1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>182.2</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>639.1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>111.3</v>
       </c>
       <c r="H24" t="n">
         <v>25.286</v>
@@ -1593,13 +1593,13 @@
         <v>58</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>969.9</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>407.7</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1628,13 +1628,13 @@
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>8846.7</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>61</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1884.7</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>62</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>778.4</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>64</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3416.3</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>65</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2317.8</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3456.8</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>139.3</v>
       </c>
       <c r="H30" t="n">
         <v>7.372</v>
@@ -1803,16 +1803,16 @@
         <v>66</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6569.3</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.7</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>401.4</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>227.8</v>
       </c>
       <c r="H31" t="n">
         <v>10.949</v>
@@ -1838,16 +1838,16 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>3539</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5317</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>424.8</v>
       </c>
       <c r="H32" t="n">
         <v>5.399</v>
@@ -1873,7 +1873,7 @@
         <v>68</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1908,13 +1908,13 @@
         <v>69</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3503.1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>721.9</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1943,13 +1943,13 @@
         <v>71</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6539.7</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1363</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>72</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>7626.1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3811.5</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>73</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>11855.5</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2315.4</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2048,13 +2048,13 @@
         <v>74</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>552.3</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1054.4</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2118,13 +2118,13 @@
         <v>77</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>6465.1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>773.4</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2153,13 +2153,13 @@
         <v>78</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>19862</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>79</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>10487.5</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>80</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4457.1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>610.7</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2258,13 +2258,13 @@
         <v>81</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>10535.7</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>2378.9</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>82</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>8462.3</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1405.9</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2328,13 +2328,13 @@
         <v>83</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>8403.4</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3612.8</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>85</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>2340.2</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
         <v>86</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>592.6</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>87</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>167.9</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
